--- a/Integrador2/Output/Libros.xlsx
+++ b/Integrador2/Output/Libros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Titulo del libro</t>
   </si>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <t>MLA-1108927442</t>
-  </si>
-  <si>
-    <t>Immune : The New Book From Kurzgesagt - A Gorgeo</t>
-  </si>
-  <si>
-    <t>MLA-1110631253</t>
   </si>
   <si>
     <t>Expanding Universe. The Hubble Space Telescope -</t>
@@ -846,15 +840,15 @@
         <v>56</v>
       </c>
       <c r="C28">
-        <v>9820</v>
+        <v>16730</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>16730</v>
@@ -862,10 +856,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>24600</v>
